--- a/夕阳下_回想10岁的童年/wow盗贼伤害计算.xlsx
+++ b/夕阳下_回想10岁的童年/wow盗贼伤害计算.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B14ADE3-8EFE-443E-84F0-71E0644715A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="6156" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匕首" sheetId="1" r:id="rId1"/>
     <sheet name="单手剑" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
   <si>
     <t>背刺:</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -110,13 +111,33 @@
   </si>
   <si>
     <t>影袭:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手武器:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主手普功:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手普功:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中(百分比):</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A方案多xx伤害:</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -331,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -365,7 +387,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -382,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,6 +479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -492,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,36 +723,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:M64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -704,20 +762,34 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I5" s="2"/>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J6" s="8"/>
+      <c r="K6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>400</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
@@ -727,8 +799,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J7" s="8"/>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -738,15 +818,23 @@
         <v>35</v>
       </c>
       <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J8" s="8"/>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
       <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J9" s="8"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -754,19 +842,33 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J11" s="8"/>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>120</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
@@ -776,19 +878,35 @@
         <v>1.8</v>
       </c>
       <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J12" s="8"/>
+      <c r="K12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="15">
-        <v>26</v>
+        <v>30.06</v>
       </c>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J13" s="8"/>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="15">
+        <v>31.06</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
@@ -796,696 +914,1276 @@
       </c>
       <c r="D14" s="2">
         <f>D11*D12</f>
-        <v>185.4</v>
+        <v>216</v>
       </c>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J14" s="8"/>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="2">
+        <f>L11*L12</f>
+        <v>216</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="15">
+        <v>30.06</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="15">
+        <v>31.06</v>
+      </c>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D17*D18</f>
+        <v>182.16</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="2">
+        <f>L17*L18</f>
+        <v>182.16</v>
+      </c>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9"/>
+      <c r="J22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <f>D14*(1- D8/100)</f>
+        <v>140.4</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <f>L14*(1- L8/100)</f>
+        <v>140.4</v>
+      </c>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>83</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="2">
+        <v>82</v>
+      </c>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <f>INT(D6/D12 * (D26/100) )</f>
+        <v>184</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <f>INT(L6/L12 * (L26/100) )</f>
+        <v>182</v>
+      </c>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <f>INT(D28* (D24+ D13) /100)</f>
+        <v>55</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2">
+        <f>INT(L28* (L24+ L13) /100)</f>
+        <v>56</v>
+      </c>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <f>D28-D29</f>
+        <v>129</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2">
+        <f>L28-L29</f>
+        <v>126</v>
+      </c>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D23*(1+ (D25+100)/100)</f>
+        <v>280.8</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2">
+        <f>L23*(1+ (L25+100)/100)</f>
+        <v>280.8</v>
+      </c>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <f>D29*D31+(D30*D23)</f>
+        <v>33555.600000000006</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="G32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <f>D32-L32</f>
+        <v>140.40000000000146</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="2">
+        <f>L29*L31+(L30*L23)</f>
+        <v>33415.200000000004</v>
+      </c>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9"/>
+      <c r="J34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <f>D20*(1- D8/100)</f>
+        <v>118.404</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <f>L20*(1- L8/100)</f>
+        <v>118.404</v>
+      </c>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
+        <v>83</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="2">
+        <v>82</v>
+      </c>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="9"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <f>INT(D6/D18*(D38/100) )</f>
+        <v>184</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="2">
+        <f>INT(L6/L18*(L38/100) )</f>
+        <v>182</v>
+      </c>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2">
+        <f>INT(D40*  (D36+ D19) /100)</f>
+        <v>55</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="2">
+        <f>INT(L40*  (L36+ L19) /100)</f>
+        <v>56</v>
+      </c>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2">
+        <f>D40-D41</f>
+        <v>129</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="2">
+        <f>L40-L41</f>
+        <v>126</v>
+      </c>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <f>D35*(1+ (D37+100)/100)</f>
+        <v>236.80799999999999</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="2">
+        <f>L35*(1+ (L37+100)/100)</f>
+        <v>236.80799999999999</v>
+      </c>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2">
+        <f>D41*D43+(D42*D35)</f>
+        <v>28298.555999999997</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="G44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <f>D44-L44</f>
+        <v>118.40399999999863</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="2">
+        <f>L41*L43+(L42*L35)</f>
+        <v>28180.151999999998</v>
+      </c>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="9"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="9"/>
+      <c r="J46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <f>(D14*1.5+180)*(1 + D51/100)*(1-D8/100)</f>
+        <v>393.12</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <f>(L14*1.5+180)*(1 + L51/100)*(1-L8/100)</f>
+        <v>393.12</v>
+      </c>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>30</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="2">
+        <v>30</v>
+      </c>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2">
+        <v>24</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="2">
+        <v>24</v>
+      </c>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2">
+        <v>100</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="2">
+        <v>100</v>
+      </c>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="2">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <f>INT( (D7+( INT(D6/2) )*20)/60 *(D50/100))</f>
+        <v>68</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="2">
+        <f>INT( (L7+( INT(L6/2) )*20)/60 *(L50/100))</f>
+        <v>68</v>
+      </c>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2">
+        <f>INT(D52*(D48+D13)/100)</f>
+        <v>40</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="2">
+        <f>INT(L52*(L48+L13)/100)</f>
+        <v>41</v>
+      </c>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2">
+        <f>D52-D53</f>
+        <v>28</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="2">
+        <f>L52-L53</f>
+        <v>27</v>
+      </c>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D47*(1+(D49+100)/100)</f>
+        <v>880.58880000000011</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <f>L47*(1+(L49+100)/100)</f>
+        <v>880.58880000000011</v>
+      </c>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2">
+        <f>D53*D55 +(D54*D47)</f>
+        <v>46230.912000000004</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="G56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56">
+        <f>D56-L56</f>
+        <v>-487.4687999999951</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="2">
+        <f>L53*L55 +(L54*L47)</f>
+        <v>46718.380799999999</v>
+      </c>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="9"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="9"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="9"/>
+      <c r="J59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2">
+        <f>D56+D32+D44</f>
+        <v>108085.06800000001</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="G60" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60">
+        <f>D60-L60</f>
+        <v>-228.6647999999841</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="2">
+        <f>L56+L32+L44</f>
+        <v>108313.7328</v>
+      </c>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:E45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D12*D13</f>
+        <v>180</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
-        <f>D14*(1- D8/100)</f>
-        <v>120.51</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <f>D15*(1- D9/100)</f>
+        <v>117</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <f>INT(D6/D12)</f>
-        <v>33</v>
-      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <f>INT(D23*  (D19+ D13) /100)</f>
-        <v>8</v>
+        <f>INT(D7/D13)</f>
+        <v>33</v>
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
-        <f>D23-D24</f>
-        <v>25</v>
+        <f>INT(D24*  (D20+ D14) /100)</f>
+        <v>8</v>
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2">
-        <f>D18*(1+ (D20+100)/100)</f>
-        <v>241.02</v>
+        <f>D24-D25</f>
+        <v>25</v>
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D19*(1+ (D21+100)/100)</f>
+        <v>234</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="2">
-        <f>D24*D26+(D25*D18)</f>
-        <v>4940.91</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <f>D25*D27+(D26*D19)</f>
+        <v>4797</v>
+      </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="10" t="s">
-        <v>0</v>
-      </c>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="4" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="2">
-        <f>(D14*1.5+225)*(1 + D34/100)*(1-D8/100)</f>
-        <v>392.41800000000001</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <f>D15*(1 + D35/100)*(1-D9/100)</f>
+        <v>117</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="2">
-        <v>20</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D35" s="2">
-        <f>INT( (D7+( INT(D6/2) )*20)/60 )</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
-        <f>INT(D35*(D31+D13)/100)</f>
-        <v>6</v>
+        <f>INT( (D8+( INT(D7/2) )*20)/60 )</f>
+        <v>11</v>
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2">
-        <f>D35-D36</f>
-        <v>5</v>
+        <f>INT(D36*(D32+D14)/100)</f>
+        <v>2</v>
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2">
-        <f>D30*(1+(D32+100)/100)</f>
-        <v>879.01632000000006</v>
+        <f>D36-D37</f>
+        <v>9</v>
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D31*(1+(D33+100)/100)</f>
+        <v>234</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="2">
-        <f>D36*D38 +(D37*D30)</f>
-        <v>7236.1879200000003</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <f>D37*D39 +(D38*D31)</f>
+        <v>1521</v>
+      </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="2">
-        <f>D39+D27</f>
-        <v>12177.09792</v>
-      </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E47" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>60</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="15">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <f>D12*D13</f>
-        <v>180</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <f>D15*(1- D9/100)</f>
-        <v>117</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <f>INT(D7/D13)</f>
-        <v>33</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2">
-        <f>INT(D24*  (D20+ D14) /100)</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2">
-        <f>D24-D25</f>
-        <v>25</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
-        <f>D19*(1+ (D21+100)/100)</f>
-        <v>234</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2">
-        <f>D25*D27+(D26*D19)</f>
-        <v>4797</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
-      <c r="C31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <f>D15*(1 + D35/100)*(1-D9/100)</f>
-        <v>117</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2">
-        <f>INT( (D8+( INT(D7/2) )*20)/60 )</f>
-        <v>11</v>
-      </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="8"/>
-      <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2">
-        <f>INT(D36*(D32+D14)/100)</f>
-        <v>2</v>
-      </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="8"/>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2">
-        <f>D36-D37</f>
-        <v>9</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="8"/>
-      <c r="C39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2">
-        <f>D31*(1+(D33+100)/100)</f>
-        <v>234</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="8"/>
-      <c r="C40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="2">
-        <f>D37*D39 +(D38*D31)</f>
-        <v>1521</v>
-      </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="8"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +2191,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="4" t="s">
         <v>16</v>
@@ -1504,7 +2202,7 @@
       </c>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1513,5 +2211,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/夕阳下_回想10岁的童年/wow盗贼伤害计算.xlsx
+++ b/夕阳下_回想10岁的童年/wow盗贼伤害计算.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B14ADE3-8EFE-443E-84F0-71E0644715A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11249C2-C53E-4FF7-88BD-9FD23302EC70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匕首" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>背刺:</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>A方案多xx伤害:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击强度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双持命中71</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -724,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M64"/>
+  <dimension ref="A3:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -753,6 +761,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -777,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="9"/>
       <c r="J6" s="8"/>
@@ -785,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="2">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="M6" s="9"/>
     </row>
@@ -812,78 +823,78 @@
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>35</v>
+        <v>1045</v>
       </c>
       <c r="E8" s="9"/>
       <c r="J8" s="8"/>
       <c r="K8" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2">
-        <v>35</v>
+        <v>1089</v>
       </c>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="J9" s="8"/>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
+        <v>35</v>
+      </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="8"/>
       <c r="E10" s="9"/>
-      <c r="J10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="8"/>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>120</v>
-      </c>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>120</v>
-      </c>
+      <c r="J11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>1.8</v>
+        <v>58.3</v>
       </c>
       <c r="E12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="2">
-        <v>1.8</v>
+        <v>58.3</v>
       </c>
       <c r="M12" s="9"/>
     </row>
@@ -891,103 +902,103 @@
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15">
-        <v>30.06</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.8</v>
       </c>
       <c r="E13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="15">
-        <v>31.06</v>
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.8</v>
       </c>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <f>D11*D12</f>
-        <v>216</v>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15">
+        <v>35.71</v>
       </c>
       <c r="E14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="2">
-        <f>L11*L12</f>
-        <v>216</v>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="15">
+        <v>32.19</v>
       </c>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <f>(D12+(D8/14))*D13</f>
+        <v>239.29714285714283</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="2">
+        <f>(L12+(L8/14))*L13</f>
+        <v>244.95428571428573</v>
+      </c>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="9"/>
-      <c r="J16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="2"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>101.2</v>
-      </c>
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>101.2</v>
-      </c>
+      <c r="J17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>1.8</v>
+        <v>51.2</v>
       </c>
       <c r="E18" s="9"/>
       <c r="J18" s="8"/>
       <c r="K18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" s="2">
-        <v>1.8</v>
+        <v>51.2</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -995,105 +1006,105 @@
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="15">
-        <v>30.06</v>
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="15">
-        <v>31.06</v>
+        <v>6</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.6</v>
       </c>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
-        <f>D17*D18</f>
-        <v>182.16</v>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15">
+        <v>35.71</v>
       </c>
       <c r="E20" s="9"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="2">
-        <f>L17*L18</f>
-        <v>182.16</v>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="15">
+        <v>32.19</v>
       </c>
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <f>(D18+(D8/14))*D19*0.75</f>
+        <v>151.01142857142858</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="2">
+        <f>(L18+(L8/14))*L19*0.75</f>
+        <v>154.78285714285715</v>
+      </c>
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="9"/>
-      <c r="J22" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <f>D14*(1- D8/100)</f>
-        <v>140.4</v>
-      </c>
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="9"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <f>L14*(1- L8/100)</f>
-        <v>140.4</v>
-      </c>
+      <c r="J23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <f>D15*(1- D9/100)</f>
+        <v>155.54314285714284</v>
       </c>
       <c r="E24" s="9"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="3" t="s">
-        <v>20</v>
+      <c r="K24" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <f>L15*(1- L9/100)</f>
+        <v>159.22028571428572</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -1101,7 +1112,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -1109,7 +1120,7 @@
       <c r="E25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -1120,18 +1131,18 @@
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E26" s="9"/>
       <c r="J26" s="8"/>
       <c r="K26" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L26" s="2">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9"/>
     </row>
@@ -1139,56 +1150,54 @@
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>82</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="J27" s="8"/>
       <c r="K27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <v>82</v>
+      </c>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <f>INT(D6/D12 * (D26/100) )</f>
-        <v>184</v>
-      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="2">
-        <f>INT(L6/L12 * (L26/100) )</f>
-        <v>182</v>
-      </c>
+      <c r="K28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
-        <f>INT(D28* (D24+ D13) /100)</f>
-        <v>55</v>
+        <f>INT(D6/D13 * (D27/100) )</f>
+        <v>911</v>
       </c>
       <c r="E29" s="9"/>
       <c r="J29" s="8"/>
       <c r="K29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
-        <f>INT(L28* (L24+ L13) /100)</f>
-        <v>56</v>
+        <f>INT(L6/L13 * (L27/100) )</f>
+        <v>911</v>
       </c>
       <c r="M29" s="9"/>
     </row>
@@ -1196,20 +1205,20 @@
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
-        <f>D28-D29</f>
-        <v>129</v>
+        <f>INT(D29* (D25+ D14) /100)</f>
+        <v>325</v>
       </c>
       <c r="E30" s="9"/>
       <c r="J30" s="8"/>
       <c r="K30" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L30" s="2">
-        <f>L28-L29</f>
-        <v>126</v>
+        <f>INT(L29* (L25+ L14) /100)</f>
+        <v>293</v>
       </c>
       <c r="M30" s="9"/>
     </row>
@@ -1217,20 +1226,20 @@
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
-        <f>D23*(1+ (D25+100)/100)</f>
-        <v>280.8</v>
+        <f>D29-D30</f>
+        <v>586</v>
       </c>
       <c r="E31" s="9"/>
       <c r="J31" s="8"/>
       <c r="K31" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L31" s="2">
-        <f>L23*(1+ (L25+100)/100)</f>
-        <v>280.8</v>
+        <f>L29-L30</f>
+        <v>618</v>
       </c>
       <c r="M31" s="9"/>
     </row>
@@ -1238,93 +1247,95 @@
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
-        <f>D29*D31+(D30*D23)</f>
-        <v>33555.600000000006</v>
+        <f>D24*(1+ (D26+100)/100)</f>
+        <v>311.08628571428568</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="G32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32">
-        <f>D32-L32</f>
-        <v>140.40000000000146</v>
-      </c>
       <c r="J32" s="8"/>
       <c r="K32" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L32" s="2">
-        <f>L29*L31+(L30*L23)</f>
-        <v>33415.200000000004</v>
+        <f>L24*(1+ (L26+100)/100)</f>
+        <v>318.44057142857145</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D30*D32+(D31*D24)</f>
+        <v>192251.32457142856</v>
+      </c>
       <c r="E33" s="9"/>
+      <c r="G33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33">
+        <f>D33-L33</f>
+        <v>550.10057142854203</v>
+      </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="2">
+        <f>L30*L32+(L31*L24)</f>
+        <v>191701.22400000002</v>
+      </c>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="2"/>
       <c r="E34" s="9"/>
-      <c r="J34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="2"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="2"/>
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <f>D20*(1- D8/100)</f>
-        <v>118.404</v>
-      </c>
+      <c r="B35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="9"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <f>L20*(1- L8/100)</f>
-        <v>118.404</v>
-      </c>
+      <c r="J35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="3" t="s">
-        <v>20</v>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <f>D21*(1- D9/100)</f>
+        <v>98.157428571428582</v>
       </c>
       <c r="E36" s="9"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="3" t="s">
-        <v>20</v>
+      <c r="K36" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <f>L21*(1- L9/100)</f>
+        <v>100.60885714285715</v>
       </c>
       <c r="M36" s="9"/>
     </row>
@@ -1332,7 +1343,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -1340,7 +1351,7 @@
       <c r="E37" s="9"/>
       <c r="J37" s="8"/>
       <c r="K37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -1351,18 +1362,18 @@
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E38" s="9"/>
       <c r="J38" s="8"/>
       <c r="K38" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L38" s="2">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9"/>
     </row>
@@ -1370,56 +1381,54 @@
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D39" s="2">
+        <v>82</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="J39" s="8"/>
       <c r="K39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="L39" s="2">
+        <v>82</v>
+      </c>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2">
-        <f>INT(D6/D18*(D38/100) )</f>
-        <v>184</v>
-      </c>
+      <c r="C40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="9"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="2">
-        <f>INT(L6/L18*(L38/100) )</f>
-        <v>182</v>
-      </c>
+      <c r="K40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="2"/>
       <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
-        <f>INT(D40*  (D36+ D19) /100)</f>
-        <v>55</v>
+        <f>INT(D6/D19*(D39/100) )</f>
+        <v>1025</v>
       </c>
       <c r="E41" s="9"/>
       <c r="J41" s="8"/>
       <c r="K41" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L41" s="2">
-        <f>INT(L40*  (L36+ L19) /100)</f>
-        <v>56</v>
+        <f>INT(L6/L19*(L39/100) )</f>
+        <v>1025</v>
       </c>
       <c r="M41" s="9"/>
     </row>
@@ -1427,20 +1436,20 @@
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2">
-        <f>D40-D41</f>
-        <v>129</v>
+        <f>INT(D41*  (D37+ D20) /100)</f>
+        <v>366</v>
       </c>
       <c r="E42" s="9"/>
       <c r="J42" s="8"/>
       <c r="K42" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L42" s="2">
-        <f>L40-L41</f>
-        <v>126</v>
+        <f>INT(L41*  (L37+ L20) /100)</f>
+        <v>329</v>
       </c>
       <c r="M42" s="9"/>
     </row>
@@ -1448,20 +1457,20 @@
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2">
-        <f>D35*(1+ (D37+100)/100)</f>
-        <v>236.80799999999999</v>
+        <f>D41-D42</f>
+        <v>659</v>
       </c>
       <c r="E43" s="9"/>
       <c r="J43" s="8"/>
       <c r="K43" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L43" s="2">
-        <f>L35*(1+ (L37+100)/100)</f>
-        <v>236.80799999999999</v>
+        <f>L41-L42</f>
+        <v>696</v>
       </c>
       <c r="M43" s="9"/>
     </row>
@@ -1469,93 +1478,95 @@
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2">
-        <f>D41*D43+(D42*D35)</f>
-        <v>28298.555999999997</v>
+        <f>D36*(1+ (D38+100)/100)</f>
+        <v>196.31485714285716</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="G44" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44">
-        <f>D44-L44</f>
-        <v>118.40399999999863</v>
-      </c>
       <c r="J44" s="8"/>
       <c r="K44" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L44" s="2">
-        <f>L41*L43+(L42*L35)</f>
-        <v>28180.151999999998</v>
+        <f>L36*(1+ (L38+100)/100)</f>
+        <v>201.21771428571429</v>
       </c>
       <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D42*D44+(D43*D36)</f>
+        <v>136536.98314285715</v>
+      </c>
       <c r="E45" s="9"/>
+      <c r="G45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45">
+        <f>D45-L45</f>
+        <v>312.59057142859092</v>
+      </c>
       <c r="J45" s="8"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="K45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="2">
+        <f>L42*L44+(L43*L36)</f>
+        <v>136224.39257142856</v>
+      </c>
       <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="9"/>
-      <c r="J46" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="J46" s="8"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <f>(D14*1.5+180)*(1 + D51/100)*(1-D8/100)</f>
-        <v>393.12</v>
-      </c>
+      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="9"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <f>(L14*1.5+180)*(1 + L51/100)*(1-L8/100)</f>
-        <v>393.12</v>
-      </c>
+      <c r="J47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="3" t="s">
-        <v>20</v>
+      <c r="C48" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D48" s="2">
-        <v>30</v>
+        <f>(D15*1.5+180)*(1 + D52/100)*(1-D9/100)</f>
+        <v>420.37765714285712</v>
       </c>
       <c r="E48" s="9"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="3" t="s">
-        <v>20</v>
+      <c r="K48" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>30</v>
+        <f>(L15*1.5+180)*(1 + L52/100)*(1-L9/100)</f>
+        <v>426.99651428571428</v>
       </c>
       <c r="M48" s="9"/>
     </row>
@@ -1563,18 +1574,18 @@
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E49" s="9"/>
       <c r="J49" s="8"/>
       <c r="K49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L49" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M49" s="9"/>
     </row>
@@ -1582,18 +1593,18 @@
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E50" s="9"/>
       <c r="J50" s="8"/>
       <c r="K50" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L50" s="2">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="M50" s="9"/>
     </row>
@@ -1601,39 +1612,37 @@
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E51" s="9"/>
       <c r="J51" s="8"/>
       <c r="K51" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L51" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="4" t="s">
-        <v>10</v>
+      <c r="C52" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="2">
-        <f>INT( (D7+( INT(D6/2) )*20)/60 *(D50/100))</f>
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E52" s="9"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="4" t="s">
-        <v>10</v>
+      <c r="K52" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="L52" s="2">
-        <f>INT( (L7+( INT(L6/2) )*20)/60 *(L50/100))</f>
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M52" s="9"/>
     </row>
@@ -1641,20 +1650,20 @@
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
-        <f>INT(D52*(D48+D13)/100)</f>
-        <v>40</v>
+        <f>INT( (D7+( INT(D6/2) )*20)/60 *(D51/100))</f>
+        <v>335</v>
       </c>
       <c r="E53" s="9"/>
       <c r="J53" s="8"/>
       <c r="K53" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L53" s="2">
-        <f>INT(L52*(L48+L13)/100)</f>
-        <v>41</v>
+        <f>INT( (L7+( INT(L6/2) )*20)/60 *(L51/100))</f>
+        <v>335</v>
       </c>
       <c r="M53" s="9"/>
     </row>
@@ -1662,20 +1671,20 @@
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2">
-        <f>D52-D53</f>
-        <v>28</v>
+        <f>INT(D53*(D49+D14)/100)</f>
+        <v>220</v>
       </c>
       <c r="E54" s="9"/>
       <c r="J54" s="8"/>
       <c r="K54" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L54" s="2">
-        <f>L52-L53</f>
-        <v>27</v>
+        <f>INT(L53*(L49+L14)/100)</f>
+        <v>208</v>
       </c>
       <c r="M54" s="9"/>
     </row>
@@ -1683,20 +1692,20 @@
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2">
-        <f>D47*(1+(D49+100)/100)</f>
-        <v>880.58880000000011</v>
+        <f>D53-D54</f>
+        <v>115</v>
       </c>
       <c r="E55" s="9"/>
       <c r="J55" s="8"/>
       <c r="K55" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L55" s="2">
-        <f>L47*(1+(L49+100)/100)</f>
-        <v>880.58880000000011</v>
+        <f>L53-L54</f>
+        <v>127</v>
       </c>
       <c r="M55" s="9"/>
     </row>
@@ -1704,39 +1713,49 @@
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2">
-        <f>D53*D55 +(D54*D47)</f>
-        <v>46230.912000000004</v>
+        <f>D48*(1+(D50+100)/100)</f>
+        <v>941.64595200000008</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="G56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56">
-        <f>D56-L56</f>
-        <v>-487.4687999999951</v>
-      </c>
       <c r="J56" s="8"/>
       <c r="K56" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L56" s="2">
-        <f>L53*L55 +(L54*L47)</f>
-        <v>46718.380799999999</v>
+        <f>L48*(1+(L50+100)/100)</f>
+        <v>956.47219200000006</v>
       </c>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="C57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2">
+        <f>D54*D56 +(D55*D48)</f>
+        <v>255505.54001142859</v>
+      </c>
       <c r="E57" s="9"/>
+      <c r="G57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57">
+        <f>D57-L57</f>
+        <v>2330.7667611428478</v>
+      </c>
       <c r="J57" s="8"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="K57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="2">
+        <f>L54*L56 +(L55*L48)</f>
+        <v>253174.77325028574</v>
+      </c>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -1752,60 +1771,71 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="9"/>
-      <c r="J59" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="J59" s="8"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="9"/>
+      <c r="J60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="2">
-        <f>D56+D32+D44</f>
-        <v>108085.06800000001</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="G60" s="16" t="s">
+      <c r="D61" s="2">
+        <f>D57+D33+D45</f>
+        <v>584293.84772571432</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="G61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H60">
-        <f>D60-L60</f>
-        <v>-228.6647999999841</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="4" t="s">
+      <c r="H61">
+        <f>D61-L61</f>
+        <v>3193.4579040000681</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="2">
-        <f>L56+L32+L44</f>
-        <v>108313.7328</v>
-      </c>
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
+      <c r="L61" s="2">
+        <f>L57+L33+L45</f>
+        <v>581100.38982171426</v>
+      </c>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
